--- a/Base.xlsx
+++ b/Base.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/850bf538f2e0e235/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/850bf538f2e0e235/Escritorio/IMTM2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="13_ncr:1_{38260EB1-567B-4188-93A2-A84C61247754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B06976-6F28-4402-B901-AB4EEF6CA5D1}"/>
+  <xr:revisionPtr revIDLastSave="642" documentId="13_ncr:1_{38260EB1-567B-4188-93A2-A84C61247754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C0413A6-26C5-4E25-A85B-F6C4E80542C9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="investigacion_2" sheetId="5" r:id="rId2"/>
     <sheet name="Investigacion_3" sheetId="3" r:id="rId3"/>
     <sheet name="investigacion_4" sheetId="4" r:id="rId4"/>
+    <sheet name="investigacion_5" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">investigacion_1!$A$1:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">investigacion_1!$A$1:$Q$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Investigacion_3!$A$1:$C$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">investigacion_4!$Z$1:$Z$34</definedName>
   </definedNames>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="148">
   <si>
     <t>Concepción</t>
   </si>
@@ -251,18 +252,9 @@
     <t>0.88</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
     <t>0.33</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
     <t>0.22</t>
   </si>
   <si>
@@ -272,194 +264,245 @@
     <t>0.83</t>
   </si>
   <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>FIGEM</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>proceso_1</t>
+  </si>
+  <si>
+    <t>proceso_2</t>
+  </si>
+  <si>
+    <t>proceso_3</t>
+  </si>
+  <si>
+    <t>proceso_4</t>
+  </si>
+  <si>
+    <t>proceso_6</t>
+  </si>
+  <si>
+    <t>proceso_7</t>
+  </si>
+  <si>
+    <t>proceso_8</t>
+  </si>
+  <si>
+    <t>proceso_9</t>
+  </si>
+  <si>
+    <t>proceso_10</t>
+  </si>
+  <si>
+    <t>proceso_11</t>
+  </si>
+  <si>
+    <t>proceso_5</t>
+  </si>
+  <si>
+    <t>proceso_12</t>
+  </si>
+  <si>
+    <t>proceso_13</t>
+  </si>
+  <si>
+    <t>proceso_14</t>
+  </si>
+  <si>
+    <t>proceso_15</t>
+  </si>
+  <si>
+    <t>proceso_16</t>
+  </si>
+  <si>
+    <t>proceso_17</t>
+  </si>
+  <si>
+    <t>proceso_18</t>
+  </si>
+  <si>
+    <t>tramite_1</t>
+  </si>
+  <si>
+    <t>tramite_2</t>
+  </si>
+  <si>
+    <t>tramite_3</t>
+  </si>
+  <si>
+    <t>tramite_4</t>
+  </si>
+  <si>
+    <t>tramite_5</t>
+  </si>
+  <si>
+    <t>tramite_6</t>
+  </si>
+  <si>
+    <t>tramite_7</t>
+  </si>
+  <si>
+    <t>tramite_8</t>
+  </si>
+  <si>
+    <t>tramite_9</t>
+  </si>
+  <si>
+    <t>tramite_10</t>
+  </si>
+  <si>
+    <t>tramite_11</t>
+  </si>
+  <si>
+    <t>tramite_12</t>
+  </si>
+  <si>
+    <t>tramite_13</t>
+  </si>
+  <si>
+    <t>tramite_14</t>
+  </si>
+  <si>
+    <t>tramite_15</t>
+  </si>
+  <si>
+    <t>tramite_16</t>
+  </si>
+  <si>
+    <t>tramite_17</t>
+  </si>
+  <si>
+    <t>tramite_18</t>
+  </si>
+  <si>
+    <t>tramite_19</t>
+  </si>
+  <si>
+    <t>tramite_20</t>
+  </si>
+  <si>
+    <t>tramite_21</t>
+  </si>
+  <si>
+    <t>tramite_22</t>
+  </si>
+  <si>
+    <t>tramite_23</t>
+  </si>
+  <si>
+    <t>IMTM_2015</t>
+  </si>
+  <si>
+    <t>seg_info_1</t>
+  </si>
+  <si>
+    <t>seg_info_2</t>
+  </si>
+  <si>
+    <t>seg_info_3</t>
+  </si>
+  <si>
+    <t>seg_info_4</t>
+  </si>
+  <si>
+    <t>cant_serv</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>estrategia_servicios</t>
+  </si>
+  <si>
+    <t>estrategia_gestion</t>
+  </si>
+  <si>
+    <t>org_info_dep</t>
+  </si>
+  <si>
+    <t>org_info_2015</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
     <t>0.55</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>FIGEM</t>
-  </si>
-  <si>
-    <t>0.61</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>proceso_1</t>
-  </si>
-  <si>
-    <t>proceso_2</t>
-  </si>
-  <si>
-    <t>proceso_3</t>
-  </si>
-  <si>
-    <t>proceso_4</t>
-  </si>
-  <si>
-    <t>proceso_6</t>
-  </si>
-  <si>
-    <t>proceso_7</t>
-  </si>
-  <si>
-    <t>proceso_8</t>
-  </si>
-  <si>
-    <t>proceso_9</t>
-  </si>
-  <si>
-    <t>proceso_10</t>
-  </si>
-  <si>
-    <t>proceso_11</t>
-  </si>
-  <si>
-    <t>proceso_5</t>
-  </si>
-  <si>
-    <t>proceso_12</t>
-  </si>
-  <si>
-    <t>proceso_13</t>
-  </si>
-  <si>
-    <t>proceso_14</t>
-  </si>
-  <si>
-    <t>proceso_15</t>
-  </si>
-  <si>
-    <t>proceso_16</t>
-  </si>
-  <si>
-    <t>proceso_17</t>
-  </si>
-  <si>
-    <t>proceso_18</t>
-  </si>
-  <si>
-    <t>tramite_1</t>
-  </si>
-  <si>
-    <t>tramite_2</t>
-  </si>
-  <si>
-    <t>tramite_3</t>
-  </si>
-  <si>
-    <t>tramite_4</t>
-  </si>
-  <si>
-    <t>tramite_5</t>
-  </si>
-  <si>
-    <t>tramite_6</t>
-  </si>
-  <si>
-    <t>tramite_7</t>
-  </si>
-  <si>
-    <t>tramite_8</t>
-  </si>
-  <si>
-    <t>tramite_9</t>
-  </si>
-  <si>
-    <t>tramite_10</t>
-  </si>
-  <si>
-    <t>tramite_11</t>
-  </si>
-  <si>
-    <t>tramite_12</t>
-  </si>
-  <si>
-    <t>tramite_13</t>
-  </si>
-  <si>
-    <t>tramite_14</t>
-  </si>
-  <si>
-    <t>tramite_15</t>
-  </si>
-  <si>
-    <t>tramite_16</t>
-  </si>
-  <si>
-    <t>tramite_17</t>
-  </si>
-  <si>
-    <t>tramite_18</t>
-  </si>
-  <si>
-    <t>tramite_19</t>
-  </si>
-  <si>
-    <t>tramite_20</t>
-  </si>
-  <si>
-    <t>tramite_21</t>
-  </si>
-  <si>
-    <t>tramite_22</t>
-  </si>
-  <si>
-    <t>tramite_23</t>
-  </si>
-  <si>
-    <t>IMTM_2015</t>
-  </si>
-  <si>
-    <t>seg_info_1</t>
-  </si>
-  <si>
-    <t>seg_info_2</t>
-  </si>
-  <si>
-    <t>seg_info_3</t>
-  </si>
-  <si>
-    <t>seg_info_4</t>
-  </si>
-  <si>
-    <t>cant_serv</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.94</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>estrategia_servicios</t>
-  </si>
-  <si>
-    <t>estrategia_gestion</t>
-  </si>
-  <si>
-    <t>org_info_dep</t>
-  </si>
-  <si>
-    <t>org_info_2015</t>
+    <t>Ingeniero Civil Informático</t>
+  </si>
+  <si>
+    <t>Ingeniero en informática, analista de sistemas</t>
+  </si>
+  <si>
+    <t>(Pregrado)</t>
+  </si>
+  <si>
+    <t>Técnico nivel superior</t>
+  </si>
+  <si>
+    <t>Postgrado</t>
+  </si>
+  <si>
+    <t>Técnico de Nivel Superior</t>
+  </si>
+  <si>
+    <t>educ_info_texto</t>
+  </si>
+  <si>
+    <t>educ_info_lvl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -536,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +641,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +662,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -889,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C69B130-9C2C-4739-A556-E2E18C5F1487}">
-  <dimension ref="A1:BH34"/>
+  <dimension ref="A1:BI34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -900,12 +945,12 @@
     <col min="1" max="1" width="11.19921875" style="1"/>
     <col min="2" max="2" width="19.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.796875" style="13" customWidth="1"/>
-    <col min="4" max="16" width="11.19921875" style="13"/>
-    <col min="17" max="60" width="11.19921875" style="24"/>
-    <col min="61" max="16384" width="11.19921875" style="1"/>
+    <col min="4" max="17" width="11.19921875" style="13"/>
+    <col min="18" max="61" width="11.19921875" style="24"/>
+    <col min="62" max="16384" width="11.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -913,49 +958,52 @@
         <v>33</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>136</v>
-      </c>
       <c r="L1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="O1" s="13" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,33 +1013,33 @@
       <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="13">
-        <v>1</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
       <c r="G2" s="13">
         <v>1</v>
       </c>
       <c r="H2" s="13">
         <v>1</v>
       </c>
-      <c r="I2" s="13">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13">
-        <v>1</v>
+      <c r="I2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="25">
+        <v>2</v>
       </c>
       <c r="K2" s="13">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13">
         <v>2</v>
       </c>
-      <c r="L2" s="13">
-        <v>1</v>
-      </c>
       <c r="M2" s="13">
         <v>1</v>
       </c>
@@ -1001,8 +1049,14 @@
       <c r="O2" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,46 +1066,48 @@
       <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="13">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
       <c r="G3" s="13">
         <v>1</v>
       </c>
       <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="13">
-        <v>1</v>
-      </c>
-      <c r="J3" s="13">
-        <v>1</v>
+      <c r="I3" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="25">
+        <v>2</v>
       </c>
       <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="13">
         <v>2</v>
       </c>
-      <c r="L3" s="13">
-        <v>1</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="13">
-        <v>1</v>
+      <c r="M3" s="13">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>1</v>
+      </c>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
@@ -1095,8 +1151,9 @@
       <c r="BF3" s="24"/>
       <c r="BG3" s="24"/>
       <c r="BH3" s="24"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI3" s="24"/>
+    </row>
+    <row r="4" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,14 +1163,14 @@
       <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="13">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>77</v>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -1121,31 +1178,33 @@
       <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13">
-        <v>1</v>
+      <c r="I4" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="26">
+        <v>2</v>
       </c>
       <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
         <v>2</v>
       </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="O4" s="13">
         <v>0</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="1"/>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>137</v>
+      </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -1189,8 +1248,9 @@
       <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI4" s="1"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,45 +1261,47 @@
         <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
       <c r="G5" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1</v>
+      <c r="I5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
       </c>
       <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
         <v>2</v>
       </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
       <c r="M5" s="13">
-        <v>1</v>
-      </c>
-      <c r="N5" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="O5" s="13">
         <v>1</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q5" s="1"/>
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1283,8 +1345,9 @@
       <c r="BF5" s="1"/>
       <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI5" s="1"/>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,11 +1357,14 @@
       <c r="C6" s="13">
         <v>1</v>
       </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
       <c r="E6" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="13">
         <v>1</v>
@@ -1306,31 +1372,33 @@
       <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="J6" s="13">
-        <v>1</v>
+      <c r="I6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
       </c>
       <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
         <v>2</v>
       </c>
-      <c r="L6" s="13">
-        <v>1</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N6" s="13">
-        <v>1</v>
+      <c r="M6" s="13">
+        <v>1</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O6" s="13">
         <v>1</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" s="1"/>
+      <c r="P6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -1374,8 +1442,9 @@
       <c r="BF6" s="1"/>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI6" s="1"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,39 +1455,47 @@
         <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
       <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="J7" s="13">
         <v>1</v>
       </c>
       <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
         <v>2</v>
       </c>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
+      <c r="M7" s="13">
+        <v>1</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O7" s="13">
         <v>0</v>
       </c>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1462,8 +1539,9 @@
       <c r="BF7" s="1"/>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
-    </row>
-    <row r="8" spans="1:60" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BI7" s="1"/>
+    </row>
+    <row r="8" spans="1:61" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,46 +1551,48 @@
       <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
+      <c r="D8" s="13">
+        <v>1</v>
       </c>
       <c r="E8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L8" s="13">
         <v>4</v>
       </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="O8" s="13">
         <v>0</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -1556,8 +1636,9 @@
       <c r="BF8" s="1"/>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI8" s="1"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,46 +1648,48 @@
       <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
       <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="I9" s="13">
-        <v>1</v>
+      <c r="I9" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="J9" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
         <v>2</v>
       </c>
-      <c r="L9" s="13">
-        <v>0</v>
-      </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="13">
-        <v>1</v>
-      </c>
       <c r="O9" s="13">
         <v>1</v>
       </c>
       <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1650,8 +1733,9 @@
       <c r="BF9" s="1"/>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI9" s="1"/>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,40 +1746,49 @@
         <v>1</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="L10" s="13">
         <v>4</v>
       </c>
-      <c r="L10" s="13">
-        <v>1</v>
-      </c>
-      <c r="N10" s="13">
-        <v>1</v>
+      <c r="M10" s="13">
+        <v>1</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="O10" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="P10" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,38 +1798,50 @@
       <c r="C11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
       <c r="G11" s="13">
         <v>1</v>
       </c>
       <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="I11" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="13">
         <v>3</v>
       </c>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13">
-        <v>0</v>
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>139</v>
       </c>
       <c r="O11" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,46 +1851,48 @@
       <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
       <c r="G12" s="13">
         <v>1</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="I12" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="26">
         <v>3</v>
       </c>
+      <c r="K12" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="L12" s="13">
-        <v>1</v>
-      </c>
-      <c r="M12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
       <c r="O12" s="13">
-        <v>1</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -1829,8 +1936,9 @@
       <c r="BF12" s="1"/>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI12" s="1"/>
+    </row>
+    <row r="13" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1840,46 +1948,48 @@
       <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
       <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="I13" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K13" s="13">
+      <c r="L13" s="13">
         <v>4</v>
       </c>
-      <c r="L13" s="13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" s="13">
-        <v>1</v>
+      <c r="M13" s="13">
+        <v>1</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O13" s="13">
         <v>1</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -1923,8 +2033,9 @@
       <c r="BF13" s="1"/>
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
-    </row>
-    <row r="14" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI13" s="1"/>
+    </row>
+    <row r="14" spans="1:61" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>35</v>
       </c>
@@ -1937,10 +2048,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -1949,8 +2060,9 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:61" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,10 +2072,12 @@
       <c r="C15" s="13">
         <v>5</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
       <c r="F15" s="13">
         <v>0</v>
       </c>
@@ -1971,29 +2085,35 @@
         <v>0</v>
       </c>
       <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="J15" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
         <v>2</v>
       </c>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13">
-        <v>0</v>
+      <c r="M15" s="13">
+        <v>1</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="O15" s="13">
         <v>0</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="24"/>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
@@ -2037,8 +2157,9 @@
       <c r="BF15" s="24"/>
       <c r="BG15" s="24"/>
       <c r="BH15" s="24"/>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI15" s="24"/>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2048,46 +2169,48 @@
       <c r="C16" s="13">
         <v>3</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
       <c r="G16" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="I16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="13">
         <v>3</v>
       </c>
-      <c r="L16" s="13">
-        <v>0</v>
-      </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="13">
-        <v>0</v>
-      </c>
       <c r="O16" s="13">
         <v>0</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2131,8 +2254,9 @@
       <c r="BF16" s="1"/>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
-    </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI16" s="1"/>
+    </row>
+    <row r="17" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2143,40 +2267,49 @@
         <v>4</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
       <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="13">
+      <c r="I17" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="26">
         <v>1</v>
       </c>
       <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
         <v>2</v>
       </c>
-      <c r="L17" s="13">
-        <v>1</v>
-      </c>
-      <c r="N17" s="13">
-        <v>0</v>
+      <c r="M17" s="13">
+        <v>1</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="O17" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2186,25 +2319,25 @@
       <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>77</v>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
       </c>
       <c r="G18" s="13">
         <v>1</v>
       </c>
-      <c r="H18" s="13">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="H18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="26">
         <v>1</v>
       </c>
       <c r="K18" s="13">
@@ -2213,60 +2346,120 @@
       <c r="L18" s="13">
         <v>1</v>
       </c>
-      <c r="N18" s="13">
-        <v>0</v>
+      <c r="M18" s="13">
+        <v>1</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="O18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="13">
         <v>3</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18">
-        <v>1</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="18">
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="13">
         <v>3</v>
       </c>
-      <c r="L19" s="18">
-        <v>1</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18">
-        <v>0</v>
-      </c>
-      <c r="O19" s="18">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18"/>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="M19" s="13">
+        <v>1</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+      <c r="BH19" s="1"/>
+      <c r="BI19" s="1"/>
+    </row>
+    <row r="20" spans="1:61" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -2276,14 +2469,14 @@
       <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>131</v>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
       </c>
       <c r="G20" s="13">
         <v>1</v>
@@ -2291,32 +2484,35 @@
       <c r="H20" s="13">
         <v>1</v>
       </c>
-      <c r="I20" s="13">
-        <v>1</v>
+      <c r="I20" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="J20" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
         <v>2</v>
       </c>
-      <c r="L20" s="13">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="N20" s="13">
-        <v>0</v>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O20" s="13">
-        <v>1</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2326,46 +2522,48 @@
       <c r="C21" s="13">
         <v>5</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
       <c r="G21" s="13">
         <v>0</v>
       </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="13">
-        <v>4</v>
+      <c r="I21" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="L21" s="13">
-        <v>0</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" s="13">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="O21" s="13">
         <v>0</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q21" s="1"/>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2409,8 +2607,9 @@
       <c r="BF21" s="1"/>
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI21" s="1"/>
+    </row>
+    <row r="22" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,40 +2620,49 @@
         <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
       <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13">
-        <v>1</v>
-      </c>
-      <c r="J22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="26">
+        <v>1</v>
+      </c>
+      <c r="K22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="13">
-        <v>4</v>
-      </c>
       <c r="L22" s="13">
-        <v>0</v>
-      </c>
-      <c r="N22" s="13">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="O22" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2465,45 +2673,47 @@
         <v>5</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="F23" s="13">
+        <v>1</v>
+      </c>
       <c r="G23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
-        <v>1</v>
-      </c>
-      <c r="J23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="26">
+        <v>3</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K23" s="13">
-        <v>4</v>
-      </c>
       <c r="L23" s="13">
-        <v>1</v>
-      </c>
-      <c r="M23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="13">
+        <v>1</v>
+      </c>
+      <c r="N23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N23" s="13">
-        <v>1</v>
-      </c>
       <c r="O23" s="13">
         <v>1</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="1"/>
+      <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>134</v>
+      </c>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -2547,8 +2757,9 @@
       <c r="BF23" s="1"/>
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
-    </row>
-    <row r="24" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI23" s="1"/>
+    </row>
+    <row r="24" spans="1:61" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
@@ -2558,15 +2769,13 @@
       <c r="C24" s="16">
         <v>3</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16">
-        <v>0</v>
-      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -2575,8 +2784,9 @@
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2587,40 +2797,49 @@
         <v>3</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
       <c r="G25" s="13">
         <v>1</v>
       </c>
       <c r="H25" s="13">
         <v>1</v>
       </c>
-      <c r="I25" s="13">
-        <v>1</v>
+      <c r="I25" s="13" t="s">
+        <v>142</v>
       </c>
       <c r="J25" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" s="13">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
         <v>2</v>
       </c>
-      <c r="L25" s="13">
-        <v>1</v>
-      </c>
-      <c r="N25" s="13">
-        <v>0</v>
+      <c r="M25" s="13">
+        <v>1</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="O25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -2631,45 +2850,47 @@
         <v>5</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
       <c r="G26" s="13">
         <v>1</v>
       </c>
       <c r="H26" s="13">
         <v>1</v>
       </c>
-      <c r="I26" s="13">
-        <v>1</v>
-      </c>
-      <c r="J26" s="13" t="s">
+      <c r="I26" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="13">
-        <v>4</v>
-      </c>
       <c r="L26" s="13">
-        <v>1</v>
-      </c>
-      <c r="M26" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="13">
+        <v>1</v>
+      </c>
+      <c r="N26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N26" s="13">
-        <v>0</v>
-      </c>
       <c r="O26" s="13">
-        <v>1</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q26" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -2713,8 +2934,9 @@
       <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI26" s="1"/>
+    </row>
+    <row r="27" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -2725,46 +2947,49 @@
         <v>5</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E27" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="26">
+        <v>2</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="13">
+        <v>3</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="13">
-        <v>0</v>
-      </c>
-      <c r="H27" s="13">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13">
-        <v>1</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="13">
-        <v>3</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N27" s="13">
-        <v>0</v>
-      </c>
       <c r="O27" s="13">
         <v>0</v>
       </c>
       <c r="P27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
@@ -2775,41 +3000,47 @@
         <v>4</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="13">
+      <c r="I28" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="26">
+        <v>1</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="13">
         <v>3</v>
       </c>
-      <c r="L28" s="13">
-        <v>0</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13">
-        <v>0</v>
+      <c r="M28" s="13">
+        <v>0</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="O28" s="13">
         <v>0</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="24"/>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>133</v>
+      </c>
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
@@ -2853,8 +3084,9 @@
       <c r="BF28" s="24"/>
       <c r="BG28" s="24"/>
       <c r="BH28" s="24"/>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI28" s="24"/>
+    </row>
+    <row r="29" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2864,43 +3096,48 @@
       <c r="C29" s="13">
         <v>3</v>
       </c>
+      <c r="D29" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="E29" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
       <c r="G29" s="13">
-        <v>0</v>
-      </c>
-      <c r="H29" s="13">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="13">
+      <c r="I29" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J29" s="26">
         <v>1</v>
       </c>
       <c r="K29" s="13">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13">
         <v>2</v>
       </c>
-      <c r="L29" s="13">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="N29" s="13">
-        <v>0</v>
-      </c>
       <c r="O29" s="13">
         <v>0</v>
       </c>
-      <c r="P29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q29" s="1"/>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -2944,8 +3181,9 @@
       <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
-    </row>
-    <row r="30" spans="1:60" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI29" s="1"/>
+    </row>
+    <row r="30" spans="1:61" s="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>
@@ -2956,13 +3194,13 @@
         <v>5</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="13" t="s">
         <v>69</v>
       </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
       <c r="F30" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="13">
         <v>1</v>
@@ -2970,27 +3208,33 @@
       <c r="H30" s="13">
         <v>1</v>
       </c>
-      <c r="I30" s="13">
-        <v>1</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="13">
+      <c r="I30" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="26">
         <v>3</v>
       </c>
+      <c r="K30" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="L30" s="13">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="O30" s="13">
         <v>0</v>
       </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="24"/>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
@@ -3034,8 +3278,9 @@
       <c r="BF30" s="24"/>
       <c r="BG30" s="24"/>
       <c r="BH30" s="24"/>
-    </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI30" s="24"/>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -3046,40 +3291,49 @@
         <v>3</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
       <c r="G31" s="13">
         <v>1</v>
       </c>
       <c r="H31" s="13">
         <v>1</v>
       </c>
-      <c r="I31" s="13">
-        <v>1</v>
-      </c>
-      <c r="J31" s="13" t="s">
+      <c r="I31" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="13">
+        <v>2</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="13">
+      <c r="L31" s="13">
         <v>4</v>
       </c>
-      <c r="L31" s="13">
-        <v>1</v>
-      </c>
-      <c r="N31" s="13">
-        <v>0</v>
+      <c r="M31" s="13">
+        <v>1</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="O31" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -3089,41 +3343,50 @@
       <c r="C32" s="13">
         <v>3</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="13">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>65</v>
       </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
       <c r="G32" s="13">
         <v>1</v>
       </c>
       <c r="H32" s="13">
         <v>1</v>
       </c>
-      <c r="I32" s="13">
-        <v>1</v>
-      </c>
-      <c r="J32" s="13" t="s">
+      <c r="I32" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="26">
+        <v>2</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K32" s="13">
-        <v>5</v>
-      </c>
       <c r="L32" s="13">
-        <v>0</v>
-      </c>
-      <c r="N32" s="13">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="O32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
@@ -3134,45 +3397,47 @@
         <v>3</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="13" t="s">
         <v>67</v>
       </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
       <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
-      </c>
-      <c r="I33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="I33" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" s="26">
+        <v>1</v>
+      </c>
+      <c r="K33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="K33" s="13">
-        <v>5</v>
-      </c>
       <c r="L33" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M33" s="13">
-        <v>1</v>
-      </c>
-      <c r="N33" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="O33" s="13">
         <v>1</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -3216,8 +3481,9 @@
       <c r="BF33" s="1"/>
       <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
-    </row>
-    <row r="34" spans="1:60" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BI33" s="1"/>
+    </row>
+    <row r="34" spans="1:61" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>12</v>
       </c>
@@ -3227,15 +3493,13 @@
       <c r="C34" s="17">
         <v>5</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>49</v>
-      </c>
+      <c r="D34" s="17"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -3244,10 +3508,11 @@
       <c r="N34" s="17"/>
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P34" xr:uid="{2C69B130-9C2C-4739-A556-E2E18C5F1487}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P34">
+  <autoFilter ref="A1:Q34" xr:uid="{2C69B130-9C2C-4739-A556-E2E18C5F1487}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q34">
       <sortCondition descending="1" ref="A1:A34"/>
     </sortState>
   </autoFilter>
@@ -3260,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7582CC26-A81F-417F-BCA1-846D556AB263}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="119" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A10" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3278,22 +3543,22 @@
         <v>33</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4166,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194146D5-7BF3-433C-8D4C-CA8695F0433A}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A10" zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4186,61 +4451,61 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6291,7 +6556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620DB4DF-70E9-4507-8D59-BBDC8396E77C}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -6308,76 +6573,76 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -8886,4 +9151,490 @@
   <autoFilter ref="Z1:Z34" xr:uid="{620DB4DF-70E9-4507-8D59-BBDC8396E77C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058E9E0D-C5EF-4802-AEF4-65880A8551EE}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" style="1"/>
+    <col min="2" max="2" width="19.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="15">
+        <v>5</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="13">
+        <v>5</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13">
+        <v>3</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="13">
+        <v>4</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="13">
+        <v>5</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="13">
+        <v>3</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="13">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="13">
+        <v>5</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="13">
+        <v>3</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="13">
+        <v>3</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="13">
+        <v>3</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="17">
+        <v>5</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Base.xlsx
+++ b/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/850bf538f2e0e235/Escritorio/IMTM2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeconce-my.sharepoint.com/personal/amunoz2019_udec_cl/Documents/IMTM 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="656" documentId="13_ncr:1_{38260EB1-567B-4188-93A2-A84C61247754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6599FEF5-3CBA-4DD1-846F-5F12EFFD4146}"/>
+  <xr:revisionPtr revIDLastSave="776" documentId="13_ncr:1_{38260EB1-567B-4188-93A2-A84C61247754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DBAB649-755C-4114-9230-9532E2E8F236}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="investigacion_1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="154">
   <si>
     <t>Concepción</t>
   </si>
@@ -585,6 +585,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C69B130-9C2C-4739-A556-E2E18C5F1487}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2062,8 +2066,41 @@
       <c r="C24" s="3">
         <v>3</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
       <c r="G24" s="3">
         <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2553,8 +2590,47 @@
       <c r="C34" s="3">
         <v>5</v>
       </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
       <c r="G34" s="3">
         <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2572,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7582CC26-A81F-417F-BCA1-846D556AB263}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A18" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3202,11 +3278,21 @@
       <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -3462,11 +3548,21 @@
       <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="1"/>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
       <c r="I34" s="5"/>
     </row>
   </sheetData>
@@ -3478,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194146D5-7BF3-433C-8D4C-CA8695F0433A}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="103" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" activeCellId="2" sqref="A14:XFD14 A24:XFD24 A34:XFD34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4941,6 +5037,60 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5537,6 +5687,60 @@
       </c>
       <c r="C34" s="1">
         <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>1</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5549,8 +5753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620DB4DF-70E9-4507-8D59-BBDC8396E77C}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" activeCellId="2" sqref="A14:XFD14 A24:XFD24 A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA24" sqref="AA24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7362,29 +7566,75 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -8116,29 +8366,75 @@
       <c r="C34" s="1">
         <v>5</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>1</v>
+      </c>
+      <c r="V34" s="3">
+        <v>1</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="Z1:Z34" xr:uid="{620DB4DF-70E9-4507-8D59-BBDC8396E77C}"/>
@@ -8150,7 +8446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058E9E0D-C5EF-4802-AEF4-65880A8551EE}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -8640,7 +8936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD690094-6B0D-4E7F-8DF8-47976720181B}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/Base.xlsx
+++ b/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeconce-my.sharepoint.com/personal/amunoz2019_udec_cl/Documents/IMTM 2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="13_ncr:1_{38260EB1-567B-4188-93A2-A84C61247754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DBAB649-755C-4114-9230-9532E2E8F236}"/>
+  <xr:revisionPtr revIDLastSave="849" documentId="13_ncr:1_{38260EB1-567B-4188-93A2-A84C61247754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E866E3A-C1E5-45D0-BB62-D7A1BA200283}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="investigacion_1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Investigacion_3" sheetId="3" r:id="rId3"/>
     <sheet name="investigacion_4" sheetId="4" r:id="rId4"/>
     <sheet name="investigacion_5" sheetId="6" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="7" r:id="rId6"/>
+    <sheet name="FCM Presentacion" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">investigacion_1!$A$1:$Q$34</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="154">
   <si>
     <t>Concepción</t>
   </si>
@@ -585,10 +585,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C69B130-9C2C-4739-A556-E2E18C5F1487}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="131" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1575,8 +1571,47 @@
       <c r="C14" s="3">
         <v>5</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2056,7 +2091,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2078,8 +2113,14 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -2648,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7582CC26-A81F-417F-BCA1-846D556AB263}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="119" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="B10" zoomScale="119" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3018,11 +3059,21 @@
       <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3574,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194146D5-7BF3-433C-8D4C-CA8695F0433A}">
   <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="O3" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4441,6 +4492,60 @@
       <c r="C14" s="1">
         <v>5</v>
       </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5753,8 +5858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620DB4DF-70E9-4507-8D59-BBDC8396E77C}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView topLeftCell="A7" zoomScale="119" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6812,29 +6917,75 @@
       <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -8446,7 +8597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058E9E0D-C5EF-4802-AEF4-65880A8551EE}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="123" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -8937,7 +9088,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9471,5 +9622,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>